--- a/upload_doc/uploads/item.xlsx
+++ b/upload_doc/uploads/item.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t xml:space="preserve">Date of Purchase</t>
   </si>
@@ -52,16 +52,16 @@
     <t xml:space="preserve">Supplier</t>
   </si>
   <si>
-    <t xml:space="preserve">UPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC</t>
+    <t xml:space="preserve">Maggie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden</t>
   </si>
   <si>
     <t xml:space="preserve">Bluebird</t>
   </si>
   <si>
-    <t xml:space="preserve">Electrical</t>
+    <t xml:space="preserve">Wood</t>
   </si>
   <si>
     <t xml:space="preserve">Shop</t>
@@ -75,7 +75,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -154,7 +160,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -168,6 +174,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -423,16 +433,17 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.29"/>
   </cols>
@@ -471,7 +482,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>45394</v>
+        <v>45395</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>10</v>
@@ -486,10 +497,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>17750</v>
+        <v>1250</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>18</v>
@@ -502,8 +513,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>45394</v>
+      <c r="A3" s="4" t="n">
+        <v>45395</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>10</v>
@@ -518,10 +529,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>17751</v>
+        <v>1250</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>18</v>
@@ -533,69 +544,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>17752</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>17753</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
